--- a/output/final.xlsx
+++ b/output/final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N331"/>
+  <dimension ref="A1:O331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,11 @@
           <t>prompt_7r</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>prompt_st</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -547,6 +552,9 @@
       <c r="N2" t="n">
         <v>0</v>
       </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -593,6 +601,9 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -643,6 +654,9 @@
       <c r="N4" t="n">
         <v>1</v>
       </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -691,6 +705,9 @@
       <c r="N5" t="n">
         <v>1</v>
       </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -739,6 +756,9 @@
       <c r="N6" t="n">
         <v>0</v>
       </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -787,6 +807,9 @@
       <c r="N7" t="n">
         <v>0</v>
       </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -835,6 +858,9 @@
       <c r="N8" t="n">
         <v>1</v>
       </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -883,6 +909,9 @@
       <c r="N9" t="n">
         <v>1</v>
       </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -931,6 +960,9 @@
       <c r="N10" t="n">
         <v>0</v>
       </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -979,6 +1011,9 @@
       <c r="N11" t="n">
         <v>1</v>
       </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1027,6 +1062,9 @@
       <c r="N12" t="n">
         <v>0</v>
       </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1075,6 +1113,9 @@
       <c r="N13" t="n">
         <v>1</v>
       </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1123,6 +1164,9 @@
       <c r="N14" t="n">
         <v>0</v>
       </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1171,6 +1215,9 @@
       <c r="N15" t="n">
         <v>0</v>
       </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1219,6 +1266,9 @@
       <c r="N16" t="n">
         <v>0</v>
       </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1267,6 +1317,9 @@
       <c r="N17" t="n">
         <v>0</v>
       </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1315,6 +1368,9 @@
       <c r="N18" t="n">
         <v>0</v>
       </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1363,6 +1419,9 @@
       <c r="N19" t="n">
         <v>1</v>
       </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1411,6 +1470,9 @@
       <c r="N20" t="n">
         <v>0</v>
       </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1459,6 +1521,9 @@
       <c r="N21" t="n">
         <v>0</v>
       </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1507,6 +1572,9 @@
       <c r="N22" t="n">
         <v>0</v>
       </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1555,6 +1623,9 @@
       <c r="N23" t="n">
         <v>0</v>
       </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1603,6 +1674,9 @@
       <c r="N24" t="n">
         <v>0</v>
       </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1651,6 +1725,9 @@
       <c r="N25" t="n">
         <v>1</v>
       </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1699,6 +1776,9 @@
       <c r="N26" t="n">
         <v>1</v>
       </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1747,6 +1827,9 @@
       <c r="N27" t="n">
         <v>1</v>
       </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1795,6 +1878,9 @@
       <c r="N28" t="n">
         <v>0</v>
       </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1843,6 +1929,9 @@
       <c r="N29" t="n">
         <v>0</v>
       </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1891,6 +1980,9 @@
       <c r="N30" t="n">
         <v>0</v>
       </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1939,6 +2031,9 @@
       <c r="N31" t="n">
         <v>0</v>
       </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1987,6 +2082,9 @@
       <c r="N32" t="n">
         <v>0</v>
       </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2035,6 +2133,9 @@
       <c r="N33" t="n">
         <v>0</v>
       </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2083,6 +2184,9 @@
       <c r="N34" t="n">
         <v>0</v>
       </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2131,6 +2235,9 @@
       <c r="N35" t="n">
         <v>0</v>
       </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2179,6 +2286,9 @@
       <c r="N36" t="n">
         <v>1</v>
       </c>
+      <c r="O36" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2227,6 +2337,9 @@
       <c r="N37" t="n">
         <v>1</v>
       </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2275,6 +2388,9 @@
       <c r="N38" t="n">
         <v>1</v>
       </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2323,6 +2439,9 @@
       <c r="N39" t="n">
         <v>1</v>
       </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2371,6 +2490,9 @@
       <c r="N40" t="n">
         <v>1</v>
       </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2419,6 +2541,9 @@
       <c r="N41" t="n">
         <v>0</v>
       </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2467,6 +2592,9 @@
       <c r="N42" t="n">
         <v>1</v>
       </c>
+      <c r="O42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2515,6 +2643,9 @@
       <c r="N43" t="n">
         <v>0</v>
       </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2563,6 +2694,9 @@
       <c r="N44" t="n">
         <v>1</v>
       </c>
+      <c r="O44" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2611,6 +2745,9 @@
       <c r="N45" t="n">
         <v>0</v>
       </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2659,6 +2796,9 @@
       <c r="N46" t="n">
         <v>0</v>
       </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2707,6 +2847,9 @@
       <c r="N47" t="n">
         <v>0</v>
       </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2755,6 +2898,9 @@
       <c r="N48" t="n">
         <v>1</v>
       </c>
+      <c r="O48" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2803,6 +2949,9 @@
       <c r="N49" t="n">
         <v>0</v>
       </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2851,6 +3000,9 @@
       <c r="N50" t="n">
         <v>0</v>
       </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2899,6 +3051,9 @@
       <c r="N51" t="n">
         <v>0</v>
       </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2947,6 +3102,9 @@
       <c r="N52" t="n">
         <v>1</v>
       </c>
+      <c r="O52" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2995,6 +3153,9 @@
       <c r="N53" t="n">
         <v>1</v>
       </c>
+      <c r="O53" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3043,6 +3204,9 @@
       <c r="N54" t="n">
         <v>0</v>
       </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3091,6 +3255,9 @@
       <c r="N55" t="n">
         <v>0</v>
       </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3139,6 +3306,9 @@
       <c r="N56" t="n">
         <v>1</v>
       </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3187,6 +3357,9 @@
       <c r="N57" t="n">
         <v>1</v>
       </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3235,6 +3408,9 @@
       <c r="N58" t="n">
         <v>0</v>
       </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3283,6 +3459,9 @@
       <c r="N59" t="n">
         <v>1</v>
       </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3331,6 +3510,9 @@
       <c r="N60" t="n">
         <v>0</v>
       </c>
+      <c r="O60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3379,6 +3561,9 @@
       <c r="N61" t="n">
         <v>0</v>
       </c>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3427,6 +3612,9 @@
       <c r="N62" t="n">
         <v>0</v>
       </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3475,6 +3663,9 @@
       <c r="N63" t="n">
         <v>0</v>
       </c>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3523,6 +3714,9 @@
       <c r="N64" t="n">
         <v>1</v>
       </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3571,6 +3765,9 @@
       <c r="N65" t="n">
         <v>1</v>
       </c>
+      <c r="O65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3619,6 +3816,9 @@
       <c r="N66" t="n">
         <v>1</v>
       </c>
+      <c r="O66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3667,6 +3867,9 @@
       <c r="N67" t="n">
         <v>1</v>
       </c>
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3715,6 +3918,9 @@
       <c r="N68" t="n">
         <v>1</v>
       </c>
+      <c r="O68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3763,6 +3969,9 @@
       <c r="N69" t="n">
         <v>1</v>
       </c>
+      <c r="O69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3811,6 +4020,9 @@
       <c r="N70" t="n">
         <v>1</v>
       </c>
+      <c r="O70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3859,6 +4071,9 @@
       <c r="N71" t="n">
         <v>0</v>
       </c>
+      <c r="O71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3907,6 +4122,9 @@
       <c r="N72" t="n">
         <v>1</v>
       </c>
+      <c r="O72" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3955,6 +4173,9 @@
       <c r="N73" t="n">
         <v>1</v>
       </c>
+      <c r="O73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -4003,6 +4224,9 @@
       <c r="N74" t="n">
         <v>1</v>
       </c>
+      <c r="O74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -4051,6 +4275,9 @@
       <c r="N75" t="n">
         <v>1</v>
       </c>
+      <c r="O75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -4099,6 +4326,9 @@
       <c r="N76" t="n">
         <v>0</v>
       </c>
+      <c r="O76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -4147,6 +4377,9 @@
       <c r="N77" t="n">
         <v>1</v>
       </c>
+      <c r="O77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -4195,6 +4428,9 @@
       <c r="N78" t="n">
         <v>0</v>
       </c>
+      <c r="O78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4243,6 +4479,9 @@
       <c r="N79" t="n">
         <v>1</v>
       </c>
+      <c r="O79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -4291,6 +4530,9 @@
       <c r="N80" t="n">
         <v>1</v>
       </c>
+      <c r="O80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -4339,6 +4581,9 @@
       <c r="N81" t="n">
         <v>1</v>
       </c>
+      <c r="O81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -4387,6 +4632,9 @@
       <c r="N82" t="n">
         <v>1</v>
       </c>
+      <c r="O82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -4435,6 +4683,9 @@
       <c r="N83" t="n">
         <v>1</v>
       </c>
+      <c r="O83" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -4483,6 +4734,9 @@
       <c r="N84" t="n">
         <v>1</v>
       </c>
+      <c r="O84" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -4531,6 +4785,9 @@
       <c r="N85" t="n">
         <v>1</v>
       </c>
+      <c r="O85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4579,6 +4836,9 @@
       <c r="N86" t="n">
         <v>1</v>
       </c>
+      <c r="O86" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4627,6 +4887,9 @@
       <c r="N87" t="n">
         <v>1</v>
       </c>
+      <c r="O87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4675,6 +4938,9 @@
       <c r="N88" t="n">
         <v>0</v>
       </c>
+      <c r="O88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4723,6 +4989,9 @@
       <c r="N89" t="n">
         <v>1</v>
       </c>
+      <c r="O89" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4771,6 +5040,9 @@
       <c r="N90" t="n">
         <v>1</v>
       </c>
+      <c r="O90" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4819,6 +5091,9 @@
       <c r="N91" t="n">
         <v>1</v>
       </c>
+      <c r="O91" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4867,6 +5142,9 @@
       <c r="N92" t="n">
         <v>1</v>
       </c>
+      <c r="O92" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4915,6 +5193,9 @@
       <c r="N93" t="n">
         <v>1</v>
       </c>
+      <c r="O93" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4963,6 +5244,9 @@
       <c r="N94" t="n">
         <v>1</v>
       </c>
+      <c r="O94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -5011,6 +5295,9 @@
       <c r="N95" t="n">
         <v>0</v>
       </c>
+      <c r="O95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -5059,6 +5346,9 @@
       <c r="N96" t="n">
         <v>0</v>
       </c>
+      <c r="O96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -5107,6 +5397,9 @@
       <c r="N97" t="n">
         <v>0</v>
       </c>
+      <c r="O97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -5155,6 +5448,9 @@
       <c r="N98" t="n">
         <v>0</v>
       </c>
+      <c r="O98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -5203,6 +5499,9 @@
       <c r="N99" t="n">
         <v>1</v>
       </c>
+      <c r="O99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -5251,6 +5550,9 @@
       <c r="N100" t="n">
         <v>0</v>
       </c>
+      <c r="O100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -5299,6 +5601,9 @@
       <c r="N101" t="n">
         <v>0</v>
       </c>
+      <c r="O101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -5347,6 +5652,9 @@
       <c r="N102" t="n">
         <v>1</v>
       </c>
+      <c r="O102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -5395,6 +5703,9 @@
       <c r="N103" t="n">
         <v>1</v>
       </c>
+      <c r="O103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -5443,6 +5754,9 @@
       <c r="N104" t="n">
         <v>0</v>
       </c>
+      <c r="O104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -5491,6 +5805,9 @@
       <c r="N105" t="n">
         <v>1</v>
       </c>
+      <c r="O105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -5539,6 +5856,9 @@
       <c r="N106" t="n">
         <v>1</v>
       </c>
+      <c r="O106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -5587,6 +5907,9 @@
       <c r="N107" t="n">
         <v>1</v>
       </c>
+      <c r="O107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -5635,6 +5958,9 @@
       <c r="N108" t="n">
         <v>0</v>
       </c>
+      <c r="O108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -5683,6 +6009,9 @@
       <c r="N109" t="n">
         <v>1</v>
       </c>
+      <c r="O109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -5731,6 +6060,9 @@
       <c r="N110" t="n">
         <v>0</v>
       </c>
+      <c r="O110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -5779,6 +6111,9 @@
       <c r="N111" t="n">
         <v>1</v>
       </c>
+      <c r="O111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5827,6 +6162,9 @@
       <c r="N112" t="n">
         <v>0</v>
       </c>
+      <c r="O112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5875,6 +6213,9 @@
       <c r="N113" t="n">
         <v>0</v>
       </c>
+      <c r="O113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5923,6 +6264,9 @@
       <c r="N114" t="n">
         <v>1</v>
       </c>
+      <c r="O114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5971,6 +6315,9 @@
       <c r="N115" t="n">
         <v>0</v>
       </c>
+      <c r="O115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -6019,6 +6366,9 @@
       <c r="N116" t="n">
         <v>0</v>
       </c>
+      <c r="O116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -6067,6 +6417,9 @@
       <c r="N117" t="n">
         <v>1</v>
       </c>
+      <c r="O117" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -6115,6 +6468,9 @@
       <c r="N118" t="n">
         <v>1</v>
       </c>
+      <c r="O118" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -6163,6 +6519,9 @@
       <c r="N119" t="n">
         <v>0</v>
       </c>
+      <c r="O119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -6211,6 +6570,9 @@
       <c r="N120" t="n">
         <v>0</v>
       </c>
+      <c r="O120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -6259,6 +6621,9 @@
       <c r="N121" t="n">
         <v>0</v>
       </c>
+      <c r="O121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -6307,6 +6672,9 @@
       <c r="N122" t="n">
         <v>0</v>
       </c>
+      <c r="O122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -6355,6 +6723,9 @@
       <c r="N123" t="n">
         <v>0</v>
       </c>
+      <c r="O123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -6403,6 +6774,9 @@
       <c r="N124" t="n">
         <v>1</v>
       </c>
+      <c r="O124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -6451,6 +6825,9 @@
       <c r="N125" t="n">
         <v>0</v>
       </c>
+      <c r="O125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -6499,6 +6876,9 @@
       <c r="N126" t="n">
         <v>1</v>
       </c>
+      <c r="O126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -6547,6 +6927,9 @@
       <c r="N127" t="n">
         <v>1</v>
       </c>
+      <c r="O127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -6595,6 +6978,9 @@
       <c r="N128" t="n">
         <v>1</v>
       </c>
+      <c r="O128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -6643,6 +7029,9 @@
       <c r="N129" t="n">
         <v>1</v>
       </c>
+      <c r="O129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -6691,6 +7080,9 @@
       <c r="N130" t="n">
         <v>0</v>
       </c>
+      <c r="O130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -6739,6 +7131,9 @@
       <c r="N131" t="n">
         <v>0</v>
       </c>
+      <c r="O131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -6787,6 +7182,9 @@
       <c r="N132" t="n">
         <v>1</v>
       </c>
+      <c r="O132" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -6835,6 +7233,9 @@
       <c r="N133" t="n">
         <v>1</v>
       </c>
+      <c r="O133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -6883,6 +7284,9 @@
       <c r="N134" t="n">
         <v>0</v>
       </c>
+      <c r="O134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -6931,6 +7335,9 @@
       <c r="N135" t="n">
         <v>1</v>
       </c>
+      <c r="O135" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -6979,6 +7386,9 @@
       <c r="N136" t="n">
         <v>0</v>
       </c>
+      <c r="O136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -7027,6 +7437,9 @@
       <c r="N137" t="n">
         <v>0</v>
       </c>
+      <c r="O137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -7075,6 +7488,9 @@
       <c r="N138" t="n">
         <v>1</v>
       </c>
+      <c r="O138" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -7123,6 +7539,9 @@
       <c r="N139" t="n">
         <v>0</v>
       </c>
+      <c r="O139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -7171,6 +7590,9 @@
       <c r="N140" t="n">
         <v>1</v>
       </c>
+      <c r="O140" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -7219,6 +7641,9 @@
       <c r="N141" t="n">
         <v>1</v>
       </c>
+      <c r="O141" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -7267,6 +7692,9 @@
       <c r="N142" t="n">
         <v>0</v>
       </c>
+      <c r="O142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -7315,6 +7743,9 @@
       <c r="N143" t="n">
         <v>1</v>
       </c>
+      <c r="O143" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -7363,6 +7794,9 @@
       <c r="N144" t="n">
         <v>1</v>
       </c>
+      <c r="O144" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -7411,6 +7845,9 @@
       <c r="N145" t="n">
         <v>0</v>
       </c>
+      <c r="O145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -7459,6 +7896,9 @@
       <c r="N146" t="n">
         <v>0</v>
       </c>
+      <c r="O146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -7507,6 +7947,9 @@
       <c r="N147" t="n">
         <v>0</v>
       </c>
+      <c r="O147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -7555,6 +7998,9 @@
       <c r="N148" t="n">
         <v>0</v>
       </c>
+      <c r="O148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -7603,6 +8049,9 @@
       <c r="N149" t="n">
         <v>0</v>
       </c>
+      <c r="O149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -7651,6 +8100,9 @@
       <c r="N150" t="n">
         <v>1</v>
       </c>
+      <c r="O150" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -7699,6 +8151,9 @@
       <c r="N151" t="n">
         <v>1</v>
       </c>
+      <c r="O151" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -7747,6 +8202,9 @@
       <c r="N152" t="n">
         <v>1</v>
       </c>
+      <c r="O152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -7795,6 +8253,9 @@
       <c r="N153" t="n">
         <v>1</v>
       </c>
+      <c r="O153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -7843,6 +8304,9 @@
       <c r="N154" t="n">
         <v>0</v>
       </c>
+      <c r="O154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -7891,6 +8355,9 @@
       <c r="N155" t="n">
         <v>1</v>
       </c>
+      <c r="O155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -7939,6 +8406,9 @@
       <c r="N156" t="n">
         <v>1</v>
       </c>
+      <c r="O156" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -7987,6 +8457,9 @@
       <c r="N157" t="n">
         <v>0</v>
       </c>
+      <c r="O157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -8035,6 +8508,9 @@
       <c r="N158" t="n">
         <v>1</v>
       </c>
+      <c r="O158" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -8083,6 +8559,9 @@
       <c r="N159" t="n">
         <v>0</v>
       </c>
+      <c r="O159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -8131,6 +8610,9 @@
       <c r="N160" t="n">
         <v>1</v>
       </c>
+      <c r="O160" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -8179,6 +8661,9 @@
       <c r="N161" t="n">
         <v>0</v>
       </c>
+      <c r="O161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -8227,6 +8712,9 @@
       <c r="N162" t="n">
         <v>1</v>
       </c>
+      <c r="O162" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -8275,6 +8763,9 @@
       <c r="N163" t="n">
         <v>0</v>
       </c>
+      <c r="O163" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -8323,6 +8814,9 @@
       <c r="N164" t="n">
         <v>1</v>
       </c>
+      <c r="O164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -8371,6 +8865,9 @@
       <c r="N165" t="n">
         <v>0</v>
       </c>
+      <c r="O165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -8419,6 +8916,9 @@
       <c r="N166" t="n">
         <v>0</v>
       </c>
+      <c r="O166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -8467,6 +8967,9 @@
       <c r="N167" t="n">
         <v>0</v>
       </c>
+      <c r="O167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -8515,6 +9018,9 @@
       <c r="N168" t="n">
         <v>0</v>
       </c>
+      <c r="O168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -8563,6 +9069,9 @@
       <c r="N169" t="n">
         <v>0</v>
       </c>
+      <c r="O169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -8611,6 +9120,9 @@
       <c r="N170" t="n">
         <v>1</v>
       </c>
+      <c r="O170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -8659,6 +9171,9 @@
       <c r="N171" t="n">
         <v>0</v>
       </c>
+      <c r="O171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -8707,6 +9222,9 @@
       <c r="N172" t="n">
         <v>1</v>
       </c>
+      <c r="O172" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -8755,6 +9273,9 @@
       <c r="N173" t="n">
         <v>1</v>
       </c>
+      <c r="O173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -8803,6 +9324,9 @@
       <c r="N174" t="n">
         <v>0</v>
       </c>
+      <c r="O174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -8851,6 +9375,9 @@
       <c r="N175" t="n">
         <v>0</v>
       </c>
+      <c r="O175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -8899,6 +9426,9 @@
       <c r="N176" t="n">
         <v>0</v>
       </c>
+      <c r="O176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -8947,6 +9477,9 @@
       <c r="N177" t="n">
         <v>1</v>
       </c>
+      <c r="O177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -8995,6 +9528,9 @@
       <c r="N178" t="n">
         <v>0</v>
       </c>
+      <c r="O178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -9043,6 +9579,9 @@
       <c r="N179" t="n">
         <v>0</v>
       </c>
+      <c r="O179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -9091,6 +9630,9 @@
       <c r="N180" t="n">
         <v>1</v>
       </c>
+      <c r="O180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -9139,6 +9681,9 @@
       <c r="N181" t="n">
         <v>0</v>
       </c>
+      <c r="O181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -9187,6 +9732,9 @@
       <c r="N182" t="n">
         <v>0</v>
       </c>
+      <c r="O182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -9235,6 +9783,9 @@
       <c r="N183" t="n">
         <v>0</v>
       </c>
+      <c r="O183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -9283,6 +9834,9 @@
       <c r="N184" t="n">
         <v>0</v>
       </c>
+      <c r="O184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -9331,6 +9885,9 @@
       <c r="N185" t="n">
         <v>0</v>
       </c>
+      <c r="O185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -9379,6 +9936,9 @@
       <c r="N186" t="n">
         <v>0</v>
       </c>
+      <c r="O186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -9427,6 +9987,9 @@
       <c r="N187" t="n">
         <v>1</v>
       </c>
+      <c r="O187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -9475,6 +10038,9 @@
       <c r="N188" t="n">
         <v>0</v>
       </c>
+      <c r="O188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -9523,6 +10089,9 @@
       <c r="N189" t="n">
         <v>1</v>
       </c>
+      <c r="O189" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -9571,6 +10140,9 @@
       <c r="N190" t="n">
         <v>1</v>
       </c>
+      <c r="O190" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -9619,6 +10191,9 @@
       <c r="N191" t="n">
         <v>0</v>
       </c>
+      <c r="O191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -9667,6 +10242,9 @@
       <c r="N192" t="n">
         <v>1</v>
       </c>
+      <c r="O192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -9715,6 +10293,9 @@
       <c r="N193" t="n">
         <v>1</v>
       </c>
+      <c r="O193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -9763,6 +10344,9 @@
       <c r="N194" t="n">
         <v>1</v>
       </c>
+      <c r="O194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -9811,6 +10395,9 @@
       <c r="N195" t="n">
         <v>1</v>
       </c>
+      <c r="O195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -9859,6 +10446,9 @@
       <c r="N196" t="n">
         <v>0</v>
       </c>
+      <c r="O196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -9907,6 +10497,9 @@
       <c r="N197" t="n">
         <v>1</v>
       </c>
+      <c r="O197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -9955,6 +10548,9 @@
       <c r="N198" t="n">
         <v>1</v>
       </c>
+      <c r="O198" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -10003,6 +10599,9 @@
       <c r="N199" t="n">
         <v>0</v>
       </c>
+      <c r="O199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -10051,6 +10650,9 @@
       <c r="N200" t="n">
         <v>0</v>
       </c>
+      <c r="O200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -10099,6 +10701,9 @@
       <c r="N201" t="n">
         <v>1</v>
       </c>
+      <c r="O201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -10147,6 +10752,9 @@
       <c r="N202" t="n">
         <v>1</v>
       </c>
+      <c r="O202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -10195,6 +10803,9 @@
       <c r="N203" t="n">
         <v>0</v>
       </c>
+      <c r="O203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -10243,6 +10854,9 @@
       <c r="N204" t="n">
         <v>0</v>
       </c>
+      <c r="O204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -10291,6 +10905,9 @@
       <c r="N205" t="n">
         <v>0</v>
       </c>
+      <c r="O205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -10339,6 +10956,9 @@
       <c r="N206" t="n">
         <v>0</v>
       </c>
+      <c r="O206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -10387,6 +11007,9 @@
       <c r="N207" t="n">
         <v>0</v>
       </c>
+      <c r="O207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -10435,6 +11058,9 @@
       <c r="N208" t="n">
         <v>1</v>
       </c>
+      <c r="O208" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -10483,6 +11109,9 @@
       <c r="N209" t="n">
         <v>0</v>
       </c>
+      <c r="O209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -10531,6 +11160,9 @@
       <c r="N210" t="n">
         <v>0</v>
       </c>
+      <c r="O210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -10579,6 +11211,9 @@
       <c r="N211" t="n">
         <v>1</v>
       </c>
+      <c r="O211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -10627,6 +11262,9 @@
       <c r="N212" t="n">
         <v>0</v>
       </c>
+      <c r="O212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -10675,6 +11313,9 @@
       <c r="N213" t="n">
         <v>1</v>
       </c>
+      <c r="O213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -10723,6 +11364,9 @@
       <c r="N214" t="n">
         <v>0</v>
       </c>
+      <c r="O214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -10771,6 +11415,9 @@
       <c r="N215" t="n">
         <v>0</v>
       </c>
+      <c r="O215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -10819,6 +11466,9 @@
       <c r="N216" t="n">
         <v>0</v>
       </c>
+      <c r="O216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -10867,6 +11517,9 @@
       <c r="N217" t="n">
         <v>1</v>
       </c>
+      <c r="O217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -10915,6 +11568,9 @@
       <c r="N218" t="n">
         <v>1</v>
       </c>
+      <c r="O218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -10963,6 +11619,9 @@
       <c r="N219" t="n">
         <v>1</v>
       </c>
+      <c r="O219" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -11011,6 +11670,9 @@
       <c r="N220" t="n">
         <v>0</v>
       </c>
+      <c r="O220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -11059,6 +11721,9 @@
       <c r="N221" t="n">
         <v>1</v>
       </c>
+      <c r="O221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -11107,6 +11772,9 @@
       <c r="N222" t="n">
         <v>1</v>
       </c>
+      <c r="O222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -11155,6 +11823,9 @@
       <c r="N223" t="n">
         <v>0</v>
       </c>
+      <c r="O223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -11203,6 +11874,9 @@
       <c r="N224" t="n">
         <v>0</v>
       </c>
+      <c r="O224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -11251,6 +11925,9 @@
       <c r="N225" t="n">
         <v>0</v>
       </c>
+      <c r="O225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -11299,6 +11976,9 @@
       <c r="N226" t="n">
         <v>1</v>
       </c>
+      <c r="O226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -11347,6 +12027,9 @@
       <c r="N227" t="n">
         <v>0</v>
       </c>
+      <c r="O227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -11395,6 +12078,9 @@
       <c r="N228" t="n">
         <v>0</v>
       </c>
+      <c r="O228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -11443,6 +12129,9 @@
       <c r="N229" t="n">
         <v>1</v>
       </c>
+      <c r="O229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -11491,6 +12180,9 @@
       <c r="N230" t="n">
         <v>0</v>
       </c>
+      <c r="O230" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -11539,6 +12231,9 @@
       <c r="N231" t="n">
         <v>0</v>
       </c>
+      <c r="O231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -11587,6 +12282,9 @@
       <c r="N232" t="n">
         <v>1</v>
       </c>
+      <c r="O232" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -11635,6 +12333,9 @@
       <c r="N233" t="n">
         <v>1</v>
       </c>
+      <c r="O233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -11683,6 +12384,9 @@
       <c r="N234" t="n">
         <v>1</v>
       </c>
+      <c r="O234" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -11731,6 +12435,9 @@
       <c r="N235" t="n">
         <v>0</v>
       </c>
+      <c r="O235" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -11779,6 +12486,9 @@
       <c r="N236" t="n">
         <v>0</v>
       </c>
+      <c r="O236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -11827,6 +12537,9 @@
       <c r="N237" t="n">
         <v>0</v>
       </c>
+      <c r="O237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -11875,6 +12588,9 @@
       <c r="N238" t="n">
         <v>1</v>
       </c>
+      <c r="O238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -11923,6 +12639,9 @@
       <c r="N239" t="n">
         <v>0</v>
       </c>
+      <c r="O239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -11971,6 +12690,9 @@
       <c r="N240" t="n">
         <v>1</v>
       </c>
+      <c r="O240" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -12019,6 +12741,9 @@
       <c r="N241" t="n">
         <v>1</v>
       </c>
+      <c r="O241" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -12067,6 +12792,9 @@
       <c r="N242" t="n">
         <v>0</v>
       </c>
+      <c r="O242" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -12115,6 +12843,9 @@
       <c r="N243" t="n">
         <v>1</v>
       </c>
+      <c r="O243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -12163,6 +12894,9 @@
       <c r="N244" t="n">
         <v>1</v>
       </c>
+      <c r="O244" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -12211,6 +12945,9 @@
       <c r="N245" t="n">
         <v>1</v>
       </c>
+      <c r="O245" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -12259,6 +12996,9 @@
       <c r="N246" t="n">
         <v>0</v>
       </c>
+      <c r="O246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -12307,6 +13047,9 @@
       <c r="N247" t="n">
         <v>1</v>
       </c>
+      <c r="O247" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -12355,6 +13098,9 @@
       <c r="N248" t="n">
         <v>1</v>
       </c>
+      <c r="O248" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -12403,6 +13149,9 @@
       <c r="N249" t="n">
         <v>1</v>
       </c>
+      <c r="O249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -12451,6 +13200,9 @@
       <c r="N250" t="n">
         <v>0</v>
       </c>
+      <c r="O250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -12499,6 +13251,9 @@
       <c r="N251" t="n">
         <v>1</v>
       </c>
+      <c r="O251" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -12547,6 +13302,9 @@
       <c r="N252" t="n">
         <v>1</v>
       </c>
+      <c r="O252" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -12595,6 +13353,9 @@
       <c r="N253" t="n">
         <v>1</v>
       </c>
+      <c r="O253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -12643,6 +13404,9 @@
       <c r="N254" t="n">
         <v>1</v>
       </c>
+      <c r="O254" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -12691,6 +13455,9 @@
       <c r="N255" t="n">
         <v>0</v>
       </c>
+      <c r="O255" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -12739,6 +13506,9 @@
       <c r="N256" t="n">
         <v>0</v>
       </c>
+      <c r="O256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -12787,6 +13557,9 @@
       <c r="N257" t="n">
         <v>0</v>
       </c>
+      <c r="O257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -12835,6 +13608,9 @@
       <c r="N258" t="n">
         <v>1</v>
       </c>
+      <c r="O258" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -12883,6 +13659,9 @@
       <c r="N259" t="n">
         <v>0</v>
       </c>
+      <c r="O259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -12931,6 +13710,9 @@
       <c r="N260" t="n">
         <v>0</v>
       </c>
+      <c r="O260" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -12979,6 +13761,9 @@
       <c r="N261" t="n">
         <v>0</v>
       </c>
+      <c r="O261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -13027,6 +13812,9 @@
       <c r="N262" t="n">
         <v>1</v>
       </c>
+      <c r="O262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -13075,6 +13863,9 @@
       <c r="N263" t="n">
         <v>0</v>
       </c>
+      <c r="O263" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -13123,6 +13914,9 @@
       <c r="N264" t="n">
         <v>0</v>
       </c>
+      <c r="O264" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -13171,6 +13965,9 @@
       <c r="N265" t="n">
         <v>0</v>
       </c>
+      <c r="O265" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -13219,6 +14016,9 @@
       <c r="N266" t="n">
         <v>0</v>
       </c>
+      <c r="O266" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -13267,6 +14067,9 @@
       <c r="N267" t="n">
         <v>0</v>
       </c>
+      <c r="O267" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -13315,6 +14118,9 @@
       <c r="N268" t="n">
         <v>0</v>
       </c>
+      <c r="O268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -13363,6 +14169,9 @@
       <c r="N269" t="n">
         <v>0</v>
       </c>
+      <c r="O269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -13411,6 +14220,9 @@
       <c r="N270" t="n">
         <v>0</v>
       </c>
+      <c r="O270" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -13459,6 +14271,9 @@
       <c r="N271" t="n">
         <v>1</v>
       </c>
+      <c r="O271" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -13507,6 +14322,9 @@
       <c r="N272" t="n">
         <v>1</v>
       </c>
+      <c r="O272" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -13555,6 +14373,9 @@
       <c r="N273" t="n">
         <v>0</v>
       </c>
+      <c r="O273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -13603,6 +14424,9 @@
       <c r="N274" t="n">
         <v>0</v>
       </c>
+      <c r="O274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -13651,6 +14475,9 @@
       <c r="N275" t="n">
         <v>1</v>
       </c>
+      <c r="O275" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -13699,6 +14526,9 @@
       <c r="N276" t="n">
         <v>0</v>
       </c>
+      <c r="O276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -13747,6 +14577,9 @@
       <c r="N277" t="n">
         <v>0</v>
       </c>
+      <c r="O277" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -13795,6 +14628,9 @@
       <c r="N278" t="n">
         <v>0</v>
       </c>
+      <c r="O278" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -13843,6 +14679,9 @@
       <c r="N279" t="n">
         <v>1</v>
       </c>
+      <c r="O279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -13891,6 +14730,9 @@
       <c r="N280" t="n">
         <v>1</v>
       </c>
+      <c r="O280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -13939,6 +14781,9 @@
       <c r="N281" t="n">
         <v>0</v>
       </c>
+      <c r="O281" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -13987,6 +14832,9 @@
       <c r="N282" t="n">
         <v>0</v>
       </c>
+      <c r="O282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -14035,6 +14883,9 @@
       <c r="N283" t="n">
         <v>1</v>
       </c>
+      <c r="O283" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -14083,6 +14934,9 @@
       <c r="N284" t="n">
         <v>1</v>
       </c>
+      <c r="O284" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -14131,6 +14985,9 @@
       <c r="N285" t="n">
         <v>0</v>
       </c>
+      <c r="O285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -14179,6 +15036,9 @@
       <c r="N286" t="n">
         <v>1</v>
       </c>
+      <c r="O286" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -14227,6 +15087,9 @@
       <c r="N287" t="n">
         <v>0</v>
       </c>
+      <c r="O287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -14275,6 +15138,9 @@
       <c r="N288" t="n">
         <v>1</v>
       </c>
+      <c r="O288" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -14323,6 +15189,9 @@
       <c r="N289" t="n">
         <v>1</v>
       </c>
+      <c r="O289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -14371,6 +15240,9 @@
       <c r="N290" t="n">
         <v>1</v>
       </c>
+      <c r="O290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -14419,6 +15291,9 @@
       <c r="N291" t="n">
         <v>0</v>
       </c>
+      <c r="O291" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -14467,6 +15342,9 @@
       <c r="N292" t="n">
         <v>0</v>
       </c>
+      <c r="O292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -14515,6 +15393,9 @@
       <c r="N293" t="n">
         <v>1</v>
       </c>
+      <c r="O293" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -14563,6 +15444,9 @@
       <c r="N294" t="n">
         <v>1</v>
       </c>
+      <c r="O294" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -14611,6 +15495,9 @@
       <c r="N295" t="n">
         <v>0</v>
       </c>
+      <c r="O295" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -14659,6 +15546,9 @@
       <c r="N296" t="n">
         <v>1</v>
       </c>
+      <c r="O296" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -14707,6 +15597,9 @@
       <c r="N297" t="n">
         <v>0</v>
       </c>
+      <c r="O297" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -14755,6 +15648,9 @@
       <c r="N298" t="n">
         <v>0</v>
       </c>
+      <c r="O298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -14803,6 +15699,9 @@
       <c r="N299" t="n">
         <v>1</v>
       </c>
+      <c r="O299" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -14851,6 +15750,9 @@
       <c r="N300" t="n">
         <v>0</v>
       </c>
+      <c r="O300" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -14899,6 +15801,9 @@
       <c r="N301" t="n">
         <v>0</v>
       </c>
+      <c r="O301" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -14947,6 +15852,9 @@
       <c r="N302" t="n">
         <v>0</v>
       </c>
+      <c r="O302" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -14995,6 +15903,9 @@
       <c r="N303" t="n">
         <v>1</v>
       </c>
+      <c r="O303" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -15043,6 +15954,9 @@
       <c r="N304" t="n">
         <v>0</v>
       </c>
+      <c r="O304" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -15091,6 +16005,9 @@
       <c r="N305" t="n">
         <v>0</v>
       </c>
+      <c r="O305" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -15139,6 +16056,9 @@
       <c r="N306" t="n">
         <v>1</v>
       </c>
+      <c r="O306" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -15187,6 +16107,9 @@
       <c r="N307" t="n">
         <v>0</v>
       </c>
+      <c r="O307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -15235,6 +16158,9 @@
       <c r="N308" t="n">
         <v>0</v>
       </c>
+      <c r="O308" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -15283,6 +16209,9 @@
       <c r="N309" t="n">
         <v>0</v>
       </c>
+      <c r="O309" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -15331,6 +16260,9 @@
       <c r="N310" t="n">
         <v>0</v>
       </c>
+      <c r="O310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -15379,6 +16311,9 @@
       <c r="N311" t="n">
         <v>0</v>
       </c>
+      <c r="O311" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -15427,6 +16362,9 @@
       <c r="N312" t="n">
         <v>0</v>
       </c>
+      <c r="O312" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -15475,6 +16413,9 @@
       <c r="N313" t="n">
         <v>1</v>
       </c>
+      <c r="O313" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -15523,6 +16464,9 @@
       <c r="N314" t="n">
         <v>1</v>
       </c>
+      <c r="O314" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -15571,6 +16515,9 @@
       <c r="N315" t="n">
         <v>1</v>
       </c>
+      <c r="O315" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -15619,6 +16566,9 @@
       <c r="N316" t="n">
         <v>0</v>
       </c>
+      <c r="O316" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -15667,6 +16617,9 @@
       <c r="N317" t="n">
         <v>1</v>
       </c>
+      <c r="O317" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -15715,6 +16668,9 @@
       <c r="N318" t="n">
         <v>1</v>
       </c>
+      <c r="O318" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -15763,6 +16719,9 @@
       <c r="N319" t="n">
         <v>0</v>
       </c>
+      <c r="O319" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -15811,6 +16770,9 @@
       <c r="N320" t="n">
         <v>0</v>
       </c>
+      <c r="O320" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -15859,6 +16821,9 @@
       <c r="N321" t="n">
         <v>0</v>
       </c>
+      <c r="O321" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -15907,6 +16872,9 @@
       <c r="N322" t="n">
         <v>0</v>
       </c>
+      <c r="O322" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -15955,6 +16923,9 @@
       <c r="N323" t="n">
         <v>0</v>
       </c>
+      <c r="O323" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -16003,6 +16974,9 @@
       <c r="N324" t="n">
         <v>0</v>
       </c>
+      <c r="O324" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -16051,6 +17025,9 @@
       <c r="N325" t="n">
         <v>0</v>
       </c>
+      <c r="O325" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -16099,6 +17076,9 @@
       <c r="N326" t="n">
         <v>1</v>
       </c>
+      <c r="O326" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -16147,6 +17127,9 @@
       <c r="N327" t="n">
         <v>0</v>
       </c>
+      <c r="O327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -16195,6 +17178,9 @@
       <c r="N328" t="n">
         <v>0</v>
       </c>
+      <c r="O328" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -16243,6 +17229,9 @@
       <c r="N329" t="n">
         <v>1</v>
       </c>
+      <c r="O329" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -16291,6 +17280,9 @@
       <c r="N330" t="n">
         <v>1</v>
       </c>
+      <c r="O330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -16337,6 +17329,9 @@
         <v>1</v>
       </c>
       <c r="N331" t="n">
+        <v>1</v>
+      </c>
+      <c r="O331" t="n">
         <v>1</v>
       </c>
     </row>
